--- a/data/pca/factorExposure/factorExposure_2009-10-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009876558544489664</v>
+        <v>0.01694293788338555</v>
       </c>
       <c r="C2">
-        <v>-0.001880167418819075</v>
+        <v>0.0009776120318719396</v>
       </c>
       <c r="D2">
-        <v>-0.008078458339245084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008763923466058995</v>
+      </c>
+      <c r="E2">
+        <v>0.001733992365008383</v>
+      </c>
+      <c r="F2">
+        <v>0.01214798905523894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1087420484745948</v>
+        <v>0.0937346088181175</v>
       </c>
       <c r="C4">
-        <v>-0.01175113176016925</v>
+        <v>0.0144355648885756</v>
       </c>
       <c r="D4">
-        <v>-0.06065388699257834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.084450518055822</v>
+      </c>
+      <c r="E4">
+        <v>0.02903242058479949</v>
+      </c>
+      <c r="F4">
+        <v>-0.03234226352275119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1408049380258649</v>
+        <v>0.158724198415597</v>
       </c>
       <c r="C6">
-        <v>-0.01664632101120511</v>
+        <v>0.02618641888391851</v>
       </c>
       <c r="D6">
-        <v>0.02286534144129336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02288876848799349</v>
+      </c>
+      <c r="E6">
+        <v>0.01034347615520283</v>
+      </c>
+      <c r="F6">
+        <v>-0.0445972135586637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07706609371733257</v>
+        <v>0.06346914972790205</v>
       </c>
       <c r="C7">
-        <v>0.00366633848873404</v>
+        <v>-0.001807802295049601</v>
       </c>
       <c r="D7">
-        <v>-0.03326630082751123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05301568374038857</v>
+      </c>
+      <c r="E7">
+        <v>0.01182721485448143</v>
+      </c>
+      <c r="F7">
+        <v>-0.04769207978261098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06391632332281086</v>
+        <v>0.05718492016624534</v>
       </c>
       <c r="C8">
-        <v>0.0149568070803446</v>
+        <v>-0.01352910197084113</v>
       </c>
       <c r="D8">
-        <v>-0.00954841425934177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03302652489697433</v>
+      </c>
+      <c r="E8">
+        <v>0.01809661518574968</v>
+      </c>
+      <c r="F8">
+        <v>0.02732538106762944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08275648515419044</v>
+        <v>0.07091981510844296</v>
       </c>
       <c r="C9">
-        <v>-0.01070872572960855</v>
+        <v>0.01013763446512038</v>
       </c>
       <c r="D9">
-        <v>-0.06508696482869253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08702359297567021</v>
+      </c>
+      <c r="E9">
+        <v>0.023677423009106</v>
+      </c>
+      <c r="F9">
+        <v>-0.04824710026546522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07467726928243056</v>
+        <v>0.09268298584316582</v>
       </c>
       <c r="C10">
-        <v>-0.005934094554516964</v>
+        <v>0.02105661637373376</v>
       </c>
       <c r="D10">
-        <v>0.1538669714264772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1662640506385841</v>
+      </c>
+      <c r="E10">
+        <v>-0.03317499726933303</v>
+      </c>
+      <c r="F10">
+        <v>0.0548690790184524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09341447218361434</v>
+        <v>0.08793791737907909</v>
       </c>
       <c r="C11">
-        <v>-0.01014843925952025</v>
+        <v>0.01020477326926254</v>
       </c>
       <c r="D11">
-        <v>-0.09254341755655494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171191239307423</v>
+      </c>
+      <c r="E11">
+        <v>0.0464003420615066</v>
+      </c>
+      <c r="F11">
+        <v>-0.02332780144489019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1021599932299719</v>
+        <v>0.09197236958166938</v>
       </c>
       <c r="C12">
-        <v>-0.008137053960024761</v>
+        <v>0.007602294246971753</v>
       </c>
       <c r="D12">
-        <v>-0.09189171894968372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320201644478148</v>
+      </c>
+      <c r="E12">
+        <v>0.04677355715744557</v>
+      </c>
+      <c r="F12">
+        <v>-0.02907332874409762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04379142881828242</v>
+        <v>0.04192941657605657</v>
       </c>
       <c r="C13">
-        <v>-0.002795846274699929</v>
+        <v>0.002537210706262597</v>
       </c>
       <c r="D13">
-        <v>-0.03827920484219439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05388020003150655</v>
+      </c>
+      <c r="E13">
+        <v>-0.00433339819407301</v>
+      </c>
+      <c r="F13">
+        <v>-0.0009503240583375635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02428155216836553</v>
+        <v>0.02411548521898851</v>
       </c>
       <c r="C14">
-        <v>-0.01378368394392675</v>
+        <v>0.0138047690531819</v>
       </c>
       <c r="D14">
-        <v>-0.02441716588572892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03284287884125958</v>
+      </c>
+      <c r="E14">
+        <v>0.01890518594125244</v>
+      </c>
+      <c r="F14">
+        <v>-0.01322423740627897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03834678671049885</v>
+        <v>0.03259166097452896</v>
       </c>
       <c r="C15">
-        <v>-0.004725204633739022</v>
+        <v>0.004508134625308777</v>
       </c>
       <c r="D15">
-        <v>-0.02117730604437074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04474580866571429</v>
+      </c>
+      <c r="E15">
+        <v>0.005880280041399622</v>
+      </c>
+      <c r="F15">
+        <v>-0.02431396898538644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08108055900836861</v>
+        <v>0.07417963233722859</v>
       </c>
       <c r="C16">
-        <v>-0.002565169652958747</v>
+        <v>0.0008246472206738763</v>
       </c>
       <c r="D16">
-        <v>-0.08791653921617565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276162677041757</v>
+      </c>
+      <c r="E16">
+        <v>0.06115943701985222</v>
+      </c>
+      <c r="F16">
+        <v>-0.02715485460624474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000682737362252493</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002128202515311088</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.000885001284017287</v>
+      </c>
+      <c r="E17">
+        <v>0.0005529365933701425</v>
+      </c>
+      <c r="F17">
+        <v>0.0007163387658569287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.004922005208757943</v>
+        <v>0.03590619799733145</v>
       </c>
       <c r="C18">
-        <v>-8.186503321064336e-05</v>
+        <v>-0.003118618372605492</v>
       </c>
       <c r="D18">
-        <v>-0.001199010748381275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01564439285152516</v>
+      </c>
+      <c r="E18">
+        <v>-0.009683580591299918</v>
+      </c>
+      <c r="F18">
+        <v>0.008468721122815877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06233073884850125</v>
+        <v>0.0614358439255099</v>
       </c>
       <c r="C20">
-        <v>-0.002464810969769006</v>
+        <v>-0.0001359494375929161</v>
       </c>
       <c r="D20">
-        <v>-0.03555282343018082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07770150700513399</v>
+      </c>
+      <c r="E20">
+        <v>0.05636755975178661</v>
+      </c>
+      <c r="F20">
+        <v>-0.02504387878509308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04300348300433928</v>
+        <v>0.04064705976619854</v>
       </c>
       <c r="C21">
-        <v>-0.007623751776978417</v>
+        <v>0.006335698983842119</v>
       </c>
       <c r="D21">
-        <v>-0.01100421857931244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03770902608680485</v>
+      </c>
+      <c r="E21">
+        <v>-0.002020234121408138</v>
+      </c>
+      <c r="F21">
+        <v>0.02490432638011385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02320304965314642</v>
+        <v>0.04309089595984306</v>
       </c>
       <c r="C22">
-        <v>-0.0003026909797369547</v>
+        <v>0.0004095815972872779</v>
       </c>
       <c r="D22">
-        <v>0.02293581365070491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006493647393416297</v>
+      </c>
+      <c r="E22">
+        <v>0.03443939339957415</v>
+      </c>
+      <c r="F22">
+        <v>0.03729463314997894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02315232517133278</v>
+        <v>0.04306679086232653</v>
       </c>
       <c r="C23">
-        <v>-0.0002985036639247604</v>
+        <v>0.0004012315495048581</v>
       </c>
       <c r="D23">
-        <v>0.02292919762177258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00650927910959158</v>
+      </c>
+      <c r="E23">
+        <v>0.03462227217661586</v>
+      </c>
+      <c r="F23">
+        <v>0.03725785116021522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0881575391456869</v>
+        <v>0.07985057928944045</v>
       </c>
       <c r="C24">
-        <v>-0.001903261581475093</v>
+        <v>0.001460197676824683</v>
       </c>
       <c r="D24">
-        <v>-0.1004117853707907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1216797168786448</v>
+      </c>
+      <c r="E24">
+        <v>0.04929042649213973</v>
+      </c>
+      <c r="F24">
+        <v>-0.02779707381433094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09492017004595794</v>
+        <v>0.08521404735417717</v>
       </c>
       <c r="C25">
-        <v>-0.003850162342119641</v>
+        <v>0.004235577076963049</v>
       </c>
       <c r="D25">
-        <v>-0.09007450527067182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094961468491448</v>
+      </c>
+      <c r="E25">
+        <v>0.03260982148393424</v>
+      </c>
+      <c r="F25">
+        <v>-0.02780845750938804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.06050213878642326</v>
+        <v>0.05850091024051431</v>
       </c>
       <c r="C26">
-        <v>-0.01445594941081259</v>
+        <v>0.01418458901044242</v>
       </c>
       <c r="D26">
-        <v>-0.007947448742777703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04072220852100651</v>
+      </c>
+      <c r="E26">
+        <v>0.02818896289726297</v>
+      </c>
+      <c r="F26">
+        <v>0.006028584503227123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1342951065979318</v>
+        <v>0.1424570514769902</v>
       </c>
       <c r="C28">
-        <v>0.002051693215980812</v>
+        <v>0.02210361303624143</v>
       </c>
       <c r="D28">
-        <v>0.2687718473252529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615231709290645</v>
+      </c>
+      <c r="E28">
+        <v>-0.06719118067469043</v>
+      </c>
+      <c r="F28">
+        <v>-0.009387743133999349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02569501572415165</v>
+        <v>0.02839563174135521</v>
       </c>
       <c r="C29">
-        <v>-0.008372331725714551</v>
+        <v>0.008608475048285873</v>
       </c>
       <c r="D29">
-        <v>-0.01876609559637013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03091970208966265</v>
+      </c>
+      <c r="E29">
+        <v>0.01369442778712805</v>
+      </c>
+      <c r="F29">
+        <v>0.01318783715244418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0917872592853283</v>
+        <v>0.05944765140361685</v>
       </c>
       <c r="C30">
-        <v>0.0001792208222470287</v>
+        <v>0.002530071870312488</v>
       </c>
       <c r="D30">
-        <v>-0.07201798562037844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09028710463800431</v>
+      </c>
+      <c r="E30">
+        <v>0.0165233074919725</v>
+      </c>
+      <c r="F30">
+        <v>-0.07900816108038251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04055849374271137</v>
+        <v>0.05074176917844079</v>
       </c>
       <c r="C31">
-        <v>-0.01468611743507345</v>
+        <v>0.01529100151136646</v>
       </c>
       <c r="D31">
-        <v>-0.01705796372991776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02495274631458213</v>
+      </c>
+      <c r="E31">
+        <v>0.02843042039282333</v>
+      </c>
+      <c r="F31">
+        <v>0.0008970491113867926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05134625370820418</v>
+        <v>0.05126793052697205</v>
       </c>
       <c r="C32">
-        <v>0.001841138707547535</v>
+        <v>-0.00192560603934507</v>
       </c>
       <c r="D32">
-        <v>-0.01663252700137154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03546549661390613</v>
+      </c>
+      <c r="E32">
+        <v>0.0333453776641713</v>
+      </c>
+      <c r="F32">
+        <v>-0.003466228069292245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09743568473246696</v>
+        <v>0.08939040440548912</v>
       </c>
       <c r="C33">
-        <v>-0.005951000775925129</v>
+        <v>0.006671356964134827</v>
       </c>
       <c r="D33">
-        <v>-0.06752240530933856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.100891403662426</v>
+      </c>
+      <c r="E33">
+        <v>0.04372066399959138</v>
+      </c>
+      <c r="F33">
+        <v>-0.03785182564762339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08100080559800973</v>
+        <v>0.06771705371719686</v>
       </c>
       <c r="C34">
-        <v>-0.009204035004204671</v>
+        <v>0.00998452209568859</v>
       </c>
       <c r="D34">
-        <v>-0.0885318277732932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1092660414312002</v>
+      </c>
+      <c r="E34">
+        <v>0.03471194485041183</v>
+      </c>
+      <c r="F34">
+        <v>-0.03384837276374864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02584913034944581</v>
+        <v>0.02477792946746634</v>
       </c>
       <c r="C35">
-        <v>-0.0003448904816006732</v>
+        <v>0.002447743862337322</v>
       </c>
       <c r="D35">
-        <v>-0.002244218424539209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01111119070402068</v>
+      </c>
+      <c r="E35">
+        <v>0.01170649773454235</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006897453451332499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01544555288989985</v>
+        <v>0.02753575556863255</v>
       </c>
       <c r="C36">
-        <v>-0.009062937882787307</v>
+        <v>0.006774933885371898</v>
       </c>
       <c r="D36">
-        <v>-0.02800688509907373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03964425595971358</v>
+      </c>
+      <c r="E36">
+        <v>0.01640708418377564</v>
+      </c>
+      <c r="F36">
+        <v>-0.01531786667215987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0009864502699923876</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006309613520430354</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002258231374700875</v>
+      </c>
+      <c r="E37">
+        <v>-0.001155159163515638</v>
+      </c>
+      <c r="F37">
+        <v>-0.001221365254098931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-9.05819490065895e-05</v>
+        <v>5.28295905996592e-05</v>
       </c>
       <c r="C38">
-        <v>8.642565527116493e-07</v>
+        <v>-6.589431244380182e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001360265949828064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000749590741318943</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001885613692242909</v>
+      </c>
+      <c r="F38">
+        <v>-0.0002907765930833559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1291512981235549</v>
+        <v>0.1042587040088802</v>
       </c>
       <c r="C39">
-        <v>-0.01406903316606009</v>
+        <v>0.01533163710400583</v>
       </c>
       <c r="D39">
-        <v>-0.1361017435457629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1551881601907502</v>
+      </c>
+      <c r="E39">
+        <v>0.06023035082301344</v>
+      </c>
+      <c r="F39">
+        <v>-0.03009276513558137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02913076182437467</v>
+        <v>0.04129967300443031</v>
       </c>
       <c r="C40">
-        <v>-0.007413119927018741</v>
+        <v>0.00689695829034503</v>
       </c>
       <c r="D40">
-        <v>0.01548411903134583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03061230345266827</v>
+      </c>
+      <c r="E40">
+        <v>0.00224455054285937</v>
+      </c>
+      <c r="F40">
+        <v>0.0160910563508473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02137254384227426</v>
+        <v>0.02831771341221072</v>
       </c>
       <c r="C41">
-        <v>-0.006383523170945205</v>
+        <v>0.006937074623376697</v>
       </c>
       <c r="D41">
-        <v>-0.0001460848723274572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01019158246546265</v>
+      </c>
+      <c r="E41">
+        <v>0.01200763078742955</v>
+      </c>
+      <c r="F41">
+        <v>0.00594726746973578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02554771797225724</v>
+        <v>0.04086197857629313</v>
       </c>
       <c r="C43">
-        <v>-0.00844157103101739</v>
+        <v>0.006992565368639667</v>
       </c>
       <c r="D43">
-        <v>-0.007565709701602535</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01898318358909151</v>
+      </c>
+      <c r="E43">
+        <v>0.02538446912744034</v>
+      </c>
+      <c r="F43">
+        <v>0.01246871701875073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0995806514448463</v>
+        <v>0.07923068821949322</v>
       </c>
       <c r="C44">
-        <v>-0.01811073437668872</v>
+        <v>0.01908810059933297</v>
       </c>
       <c r="D44">
-        <v>-0.06966541855579629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09814943593643535</v>
+      </c>
+      <c r="E44">
+        <v>0.0625777526761082</v>
+      </c>
+      <c r="F44">
+        <v>-0.1547010342932074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01194338294825504</v>
+        <v>0.02344493537155969</v>
       </c>
       <c r="C46">
-        <v>-0.004161197727038466</v>
+        <v>0.003347377100740818</v>
       </c>
       <c r="D46">
-        <v>0.001922935685046488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01297808375317225</v>
+      </c>
+      <c r="E46">
+        <v>0.02638019054681689</v>
+      </c>
+      <c r="F46">
+        <v>0.00625666319000355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03656945155744663</v>
+        <v>0.05222311645627857</v>
       </c>
       <c r="C47">
-        <v>-0.003052662326898806</v>
+        <v>0.003236784810775504</v>
       </c>
       <c r="D47">
-        <v>0.01227143072096641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01399300008795709</v>
+      </c>
+      <c r="E47">
+        <v>0.02332044051268383</v>
+      </c>
+      <c r="F47">
+        <v>0.03199999100058173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04893397452700783</v>
+        <v>0.05018290230552458</v>
       </c>
       <c r="C48">
-        <v>-0.002155969695206392</v>
+        <v>0.002036037006339389</v>
       </c>
       <c r="D48">
-        <v>-0.0329564428703466</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05022795491045964</v>
+      </c>
+      <c r="E48">
+        <v>-0.004898081525393805</v>
+      </c>
+      <c r="F48">
+        <v>-0.01006198455621236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2055401823489011</v>
+        <v>0.2005352513957242</v>
       </c>
       <c r="C49">
-        <v>-0.003810839390153063</v>
+        <v>0.0187698927821331</v>
       </c>
       <c r="D49">
-        <v>-0.006883672191069801</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005525855435396926</v>
+      </c>
+      <c r="E49">
+        <v>0.03217043504697552</v>
+      </c>
+      <c r="F49">
+        <v>-0.03641069201282084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04150307317643805</v>
+        <v>0.05115783345586038</v>
       </c>
       <c r="C50">
-        <v>-0.01044092785759246</v>
+        <v>0.01104054997297918</v>
       </c>
       <c r="D50">
-        <v>-0.01291900230479184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.024260053519168</v>
+      </c>
+      <c r="E50">
+        <v>0.02973461021466707</v>
+      </c>
+      <c r="F50">
+        <v>-0.01009355145634472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-2.643866415274062e-05</v>
+        <v>-3.906945113677095e-05</v>
       </c>
       <c r="C51">
-        <v>7.091831068933741e-06</v>
+        <v>-1.185794834128284e-05</v>
       </c>
       <c r="D51">
-        <v>-0.0001909393874611216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001558593660726226</v>
+      </c>
+      <c r="E51">
+        <v>8.883748298432416e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.0002027106188498612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1566920313772105</v>
+        <v>0.1472828745075562</v>
       </c>
       <c r="C52">
-        <v>-0.005891671448002719</v>
+        <v>0.01671070765113492</v>
       </c>
       <c r="D52">
-        <v>-0.05218445614181056</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04280309683793845</v>
+      </c>
+      <c r="E52">
+        <v>0.01934240476735243</v>
+      </c>
+      <c r="F52">
+        <v>-0.04327860036257176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1696218553425171</v>
+        <v>0.171378699790022</v>
       </c>
       <c r="C53">
-        <v>-0.004872737417430636</v>
+        <v>0.01941804082419276</v>
       </c>
       <c r="D53">
-        <v>-0.01994550171762241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005505091542692198</v>
+      </c>
+      <c r="E53">
+        <v>0.02854712040301316</v>
+      </c>
+      <c r="F53">
+        <v>-0.07334343161211525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02021716499448341</v>
+        <v>0.02122107173939456</v>
       </c>
       <c r="C54">
-        <v>-0.01099568226755792</v>
+        <v>0.01146937325361995</v>
       </c>
       <c r="D54">
-        <v>-0.02354900774296591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03462968006674329</v>
+      </c>
+      <c r="E54">
+        <v>0.02201360340792972</v>
+      </c>
+      <c r="F54">
+        <v>0.00506169454467951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1078298487005149</v>
+        <v>0.1141984754768504</v>
       </c>
       <c r="C55">
-        <v>-0.008248654900945998</v>
+        <v>0.01718593183323516</v>
       </c>
       <c r="D55">
-        <v>-0.006201467005070438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008002599726905037</v>
+      </c>
+      <c r="E55">
+        <v>0.0236792227931845</v>
+      </c>
+      <c r="F55">
+        <v>-0.04741478938696955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1744021839891713</v>
+        <v>0.1769093001149849</v>
       </c>
       <c r="C56">
-        <v>-0.002929054409590162</v>
+        <v>0.01731953424410529</v>
       </c>
       <c r="D56">
-        <v>0.003305829635175471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001430357120715787</v>
+      </c>
+      <c r="E56">
+        <v>0.03319927164707394</v>
+      </c>
+      <c r="F56">
+        <v>-0.0517334132734189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02986173557432409</v>
+        <v>0.04467677441984643</v>
       </c>
       <c r="C58">
-        <v>-0.006088952540752171</v>
+        <v>-0.0006940844989438975</v>
       </c>
       <c r="D58">
-        <v>-0.05350952540788982</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07142347541176071</v>
+      </c>
+      <c r="E58">
+        <v>0.03124394058019076</v>
+      </c>
+      <c r="F58">
+        <v>0.03840904287348513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1565030813481225</v>
+        <v>0.1677853941236476</v>
       </c>
       <c r="C59">
-        <v>0.002527827604251064</v>
+        <v>0.02206880860890128</v>
       </c>
       <c r="D59">
-        <v>0.2297937173810037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2167538913520764</v>
+      </c>
+      <c r="E59">
+        <v>-0.04567903668823387</v>
+      </c>
+      <c r="F59">
+        <v>0.03547797938616864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2519678206014409</v>
+        <v>0.2318187007389048</v>
       </c>
       <c r="C60">
-        <v>0.02144190759096999</v>
+        <v>-0.002680656219501205</v>
       </c>
       <c r="D60">
-        <v>-0.05662280397778473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0422239692188541</v>
+      </c>
+      <c r="E60">
+        <v>0.009870096706522556</v>
+      </c>
+      <c r="F60">
+        <v>0.006053400188265979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1038898830743412</v>
+        <v>0.08030491035232561</v>
       </c>
       <c r="C61">
-        <v>-0.008890985335395235</v>
+        <v>0.01111522392523609</v>
       </c>
       <c r="D61">
-        <v>-0.09276036087990788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180227390212812</v>
+      </c>
+      <c r="E61">
+        <v>0.0398254190551425</v>
+      </c>
+      <c r="F61">
+        <v>-0.01326153062076183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1742465944122212</v>
+        <v>0.1698486444528972</v>
       </c>
       <c r="C62">
-        <v>-0.006546618205325475</v>
+        <v>0.02046259444768674</v>
       </c>
       <c r="D62">
-        <v>0.002891308013261905</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00577601094616887</v>
+      </c>
+      <c r="E62">
+        <v>0.03348592874876832</v>
+      </c>
+      <c r="F62">
+        <v>-0.03558465374543753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05031687288985374</v>
+        <v>0.04567989679899005</v>
       </c>
       <c r="C63">
-        <v>-0.002408697703353611</v>
+        <v>0.001647571576977381</v>
       </c>
       <c r="D63">
-        <v>-0.03407421769699145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05846955590146677</v>
+      </c>
+      <c r="E63">
+        <v>0.02282920327976356</v>
+      </c>
+      <c r="F63">
+        <v>-0.003276661105432045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1019518865663082</v>
+        <v>0.1099165180428063</v>
       </c>
       <c r="C64">
-        <v>-0.007523345690516737</v>
+        <v>0.01099953459666518</v>
       </c>
       <c r="D64">
-        <v>-0.01321993291488125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0442979541940271</v>
+      </c>
+      <c r="E64">
+        <v>0.02210245096105678</v>
+      </c>
+      <c r="F64">
+        <v>-0.02599817670244779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1297493977467649</v>
+        <v>0.1497621515048511</v>
       </c>
       <c r="C65">
-        <v>-0.02371343207251865</v>
+        <v>0.03366537893404624</v>
       </c>
       <c r="D65">
-        <v>0.01779480742563317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0432034055344996</v>
+      </c>
+      <c r="E65">
+        <v>0.005807550767352549</v>
+      </c>
+      <c r="F65">
+        <v>-0.04050526363759357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1548997256390839</v>
+        <v>0.1236898127038383</v>
       </c>
       <c r="C66">
-        <v>-0.009535065916263833</v>
+        <v>0.01324897151077615</v>
       </c>
       <c r="D66">
-        <v>-0.1303692497005231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1430404352761689</v>
+      </c>
+      <c r="E66">
+        <v>0.06595951383171152</v>
+      </c>
+      <c r="F66">
+        <v>-0.03393254661908549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05830201371712598</v>
+        <v>0.05792805980548937</v>
       </c>
       <c r="C67">
-        <v>-0.0009693404402186639</v>
+        <v>0.002761705540291541</v>
       </c>
       <c r="D67">
-        <v>-0.03983698320703086</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05637001797203362</v>
+      </c>
+      <c r="E67">
+        <v>0.01671789072395419</v>
+      </c>
+      <c r="F67">
+        <v>0.03156045507309146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1069885632811754</v>
+        <v>0.1164029757168831</v>
       </c>
       <c r="C68">
-        <v>-0.009842185827165102</v>
+        <v>0.03257031485332907</v>
       </c>
       <c r="D68">
-        <v>0.2434022953512943</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605039232267956</v>
+      </c>
+      <c r="E68">
+        <v>-0.08659257892880746</v>
+      </c>
+      <c r="F68">
+        <v>-0.005207504055006727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03306513861675131</v>
+        <v>0.03944013609338524</v>
       </c>
       <c r="C69">
-        <v>0.000539343590708374</v>
+        <v>0.00115228347114189</v>
       </c>
       <c r="D69">
-        <v>-0.001968448119570145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008052199356455443</v>
+      </c>
+      <c r="E69">
+        <v>0.02364543367531874</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006180550674027942</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05209160082314254</v>
+        <v>0.06683954939391926</v>
       </c>
       <c r="C70">
-        <v>0.02714204813070918</v>
+        <v>-0.02754911610025308</v>
       </c>
       <c r="D70">
-        <v>0.0519844958318293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02387539418550498</v>
+      </c>
+      <c r="E70">
+        <v>-0.03473618648525267</v>
+      </c>
+      <c r="F70">
+        <v>0.182821429470865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1216946676938142</v>
+        <v>0.136287132908931</v>
       </c>
       <c r="C71">
-        <v>-0.01311040588746397</v>
+        <v>0.03689460865067802</v>
       </c>
       <c r="D71">
-        <v>0.2622343726188384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723402405525935</v>
+      </c>
+      <c r="E71">
+        <v>-0.09724673819869133</v>
+      </c>
+      <c r="F71">
+        <v>-0.01055835091564754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.134115072059352</v>
+        <v>0.1426374055573685</v>
       </c>
       <c r="C72">
-        <v>-0.0173041209585065</v>
+        <v>0.02687423429886008</v>
       </c>
       <c r="D72">
-        <v>0.009014616599498957</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002716092012539756</v>
+      </c>
+      <c r="E72">
+        <v>0.03676833360073463</v>
+      </c>
+      <c r="F72">
+        <v>-0.03125341339891284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2031772729631587</v>
+        <v>0.203204140269684</v>
       </c>
       <c r="C73">
-        <v>0.002204870470528652</v>
+        <v>0.01236601188531988</v>
       </c>
       <c r="D73">
-        <v>-0.0006969259966550558</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01802191892700236</v>
+      </c>
+      <c r="E73">
+        <v>0.06322575179170514</v>
+      </c>
+      <c r="F73">
+        <v>-0.0372233543458647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09691714365200638</v>
+        <v>0.09501816837680435</v>
       </c>
       <c r="C74">
-        <v>-0.004298181860362005</v>
+        <v>0.01336437775644174</v>
       </c>
       <c r="D74">
-        <v>-0.02302716806367408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01720689903346449</v>
+      </c>
+      <c r="E74">
+        <v>0.04397248276814711</v>
+      </c>
+      <c r="F74">
+        <v>-0.05756976256191466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.13173977794275</v>
+        <v>0.1273045799736083</v>
       </c>
       <c r="C75">
-        <v>-0.01867464963401436</v>
+        <v>0.0278917505294189</v>
       </c>
       <c r="D75">
-        <v>-0.01934162711494666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03042496227726636</v>
+      </c>
+      <c r="E75">
+        <v>0.05801156247893731</v>
+      </c>
+      <c r="F75">
+        <v>-0.02197523552089105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07943044226955617</v>
+        <v>0.08725332290179275</v>
       </c>
       <c r="C77">
-        <v>-0.009694272024685769</v>
+        <v>0.007944651308010342</v>
       </c>
       <c r="D77">
-        <v>-0.09445291971681721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1116385124597426</v>
+      </c>
+      <c r="E77">
+        <v>0.03791620346578804</v>
+      </c>
+      <c r="F77">
+        <v>-0.03545233240789234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1071445174019958</v>
+        <v>0.1000461365452777</v>
       </c>
       <c r="C78">
-        <v>-0.03788216895069316</v>
+        <v>0.03910030527144251</v>
       </c>
       <c r="D78">
-        <v>-0.08846288199137224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.11423979220858</v>
+      </c>
+      <c r="E78">
+        <v>0.07432908296325996</v>
+      </c>
+      <c r="F78">
+        <v>-0.04763539119695398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1608866355876178</v>
+        <v>0.1640228239390505</v>
       </c>
       <c r="C79">
-        <v>-0.01104136865430379</v>
+        <v>0.02270261401803469</v>
       </c>
       <c r="D79">
-        <v>0.001982702190209544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01398138356337727</v>
+      </c>
+      <c r="E79">
+        <v>0.04574189605402391</v>
+      </c>
+      <c r="F79">
+        <v>-0.01196373220299157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.09145878173241243</v>
+        <v>0.08234517533804689</v>
       </c>
       <c r="C80">
-        <v>0.004519065896118322</v>
+        <v>-0.001061910163353162</v>
       </c>
       <c r="D80">
-        <v>-0.04698667606141489</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05626542620520418</v>
+      </c>
+      <c r="E80">
+        <v>0.03612193570319672</v>
+      </c>
+      <c r="F80">
+        <v>0.02238575915172173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1172831203034637</v>
+        <v>0.1196640436069726</v>
       </c>
       <c r="C81">
-        <v>-0.02259278150273634</v>
+        <v>0.03181299562316685</v>
       </c>
       <c r="D81">
-        <v>-0.03504089377193395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01469647282245527</v>
+      </c>
+      <c r="E81">
+        <v>0.05681506881157083</v>
+      </c>
+      <c r="F81">
+        <v>-0.01759550434791721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1657651681562637</v>
+        <v>0.1659620439262215</v>
       </c>
       <c r="C82">
-        <v>-0.01102458394801052</v>
+        <v>0.02483124389526678</v>
       </c>
       <c r="D82">
-        <v>-0.02276221113946614</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003404678490518976</v>
+      </c>
+      <c r="E82">
+        <v>0.02600030905509982</v>
+      </c>
+      <c r="F82">
+        <v>-0.08119014853269926</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0655690854369355</v>
+        <v>0.05886630978121449</v>
       </c>
       <c r="C83">
-        <v>-0.002532220595452038</v>
+        <v>0.002611149449617818</v>
       </c>
       <c r="D83">
-        <v>-0.03235256455592647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05123547865715301</v>
+      </c>
+      <c r="E83">
+        <v>0.00316639704810919</v>
+      </c>
+      <c r="F83">
+        <v>0.03074301500977894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06995757135374729</v>
+        <v>0.05914081497264399</v>
       </c>
       <c r="C84">
-        <v>-0.009865255838827943</v>
+        <v>0.0109565594880182</v>
       </c>
       <c r="D84">
-        <v>-0.05051467286386074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06420876536650676</v>
+      </c>
+      <c r="E84">
+        <v>0.007523743870539888</v>
+      </c>
+      <c r="F84">
+        <v>-0.005826823160452921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1313843240457332</v>
+        <v>0.1354149679871696</v>
       </c>
       <c r="C85">
-        <v>-0.01904028760560859</v>
+        <v>0.0278809602405007</v>
       </c>
       <c r="D85">
-        <v>-0.01242623107202927</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009619346222658745</v>
+      </c>
+      <c r="E85">
+        <v>0.03612506321914544</v>
+      </c>
+      <c r="F85">
+        <v>-0.04781265689058958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0747999071154979</v>
+        <v>0.09431094812743428</v>
       </c>
       <c r="C86">
-        <v>0.00305111005108501</v>
+        <v>-0.005538224757991493</v>
       </c>
       <c r="D86">
-        <v>0.06380141651570506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03990686554131993</v>
+      </c>
+      <c r="E86">
+        <v>0.2264014750817245</v>
+      </c>
+      <c r="F86">
+        <v>0.9050536088267075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1221920369622462</v>
+        <v>0.09443359582994736</v>
       </c>
       <c r="C87">
-        <v>-0.01759201449047316</v>
+        <v>0.01924701861405183</v>
       </c>
       <c r="D87">
-        <v>-0.06690439543086715</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09427782614820358</v>
+      </c>
+      <c r="E87">
+        <v>-0.05293640693458545</v>
+      </c>
+      <c r="F87">
+        <v>-0.04752800065121907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05686596929979467</v>
+        <v>0.06077950515591327</v>
       </c>
       <c r="C88">
-        <v>-0.002254325775675098</v>
+        <v>0.002173243565286137</v>
       </c>
       <c r="D88">
-        <v>-0.02725977968989469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04980206178215681</v>
+      </c>
+      <c r="E88">
+        <v>0.02410536610648746</v>
+      </c>
+      <c r="F88">
+        <v>-0.01391258575922273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1241776208653447</v>
+        <v>0.1306372553861187</v>
       </c>
       <c r="C89">
-        <v>0.00920057374918096</v>
+        <v>0.01344854665874998</v>
       </c>
       <c r="D89">
-        <v>0.2716247886601525</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2469668256947117</v>
+      </c>
+      <c r="E89">
+        <v>-0.08896896789524691</v>
+      </c>
+      <c r="F89">
+        <v>0.007870494514769144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1266387061949026</v>
+        <v>0.15116653580443</v>
       </c>
       <c r="C90">
-        <v>-0.01020839297547054</v>
+        <v>0.03360326685713879</v>
       </c>
       <c r="D90">
-        <v>0.26399565671784</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2704568683372621</v>
+      </c>
+      <c r="E90">
+        <v>-0.1127461607208023</v>
+      </c>
+      <c r="F90">
+        <v>0.006729353096003025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1127021395688576</v>
+        <v>0.1208878898971599</v>
       </c>
       <c r="C91">
-        <v>-0.009089821821071941</v>
+        <v>0.01956809065917186</v>
       </c>
       <c r="D91">
-        <v>0.0149592838381951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01473728363620565</v>
+      </c>
+      <c r="E91">
+        <v>0.05540879981107517</v>
+      </c>
+      <c r="F91">
+        <v>0.001193721455881449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1463993694604973</v>
+        <v>0.1483955471132662</v>
       </c>
       <c r="C92">
-        <v>0.003086292142900974</v>
+        <v>0.02444909450482958</v>
       </c>
       <c r="D92">
-        <v>0.2970058337801594</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914513499706107</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013470623046173</v>
+      </c>
+      <c r="F92">
+        <v>0.01220174690070251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1285687337389261</v>
+        <v>0.1520412101229096</v>
       </c>
       <c r="C93">
-        <v>-0.005819830363617526</v>
+        <v>0.02879691970786872</v>
       </c>
       <c r="D93">
-        <v>0.259487543556558</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2671207351744658</v>
+      </c>
+      <c r="E93">
+        <v>-0.07896626430075177</v>
+      </c>
+      <c r="F93">
+        <v>-0.003988499618857491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1329733757477952</v>
+        <v>0.1281884093915958</v>
       </c>
       <c r="C94">
-        <v>-0.0149772555039885</v>
+        <v>0.02429227010576673</v>
       </c>
       <c r="D94">
-        <v>-0.0390200058146862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04164859091387981</v>
+      </c>
+      <c r="E94">
+        <v>0.0569111238316424</v>
+      </c>
+      <c r="F94">
+        <v>-0.03598992522863934</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1192659381485804</v>
+        <v>0.1266672464106499</v>
       </c>
       <c r="C95">
-        <v>-0.003134695758501482</v>
+        <v>0.002905891926550769</v>
       </c>
       <c r="D95">
-        <v>-0.06734376110374844</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09489206453556313</v>
+      </c>
+      <c r="E95">
+        <v>0.04905301595251304</v>
+      </c>
+      <c r="F95">
+        <v>0.004411629098104806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.03456840766246193</v>
+        <v>0.1075878549858979</v>
       </c>
       <c r="C96">
-        <v>0.9937519018427468</v>
+        <v>-0.9872805402133739</v>
       </c>
       <c r="D96">
-        <v>0.006611122470534228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05117763157623172</v>
+      </c>
+      <c r="E96">
+        <v>0.05346415997415839</v>
+      </c>
+      <c r="F96">
+        <v>-0.04244658395476643</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1960098511894227</v>
+        <v>0.1924576405041566</v>
       </c>
       <c r="C97">
-        <v>0.02260214146691267</v>
+        <v>-0.007025587216510421</v>
       </c>
       <c r="D97">
-        <v>0.04928340747824229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01790958375326092</v>
+      </c>
+      <c r="E97">
+        <v>0.02227205191882398</v>
+      </c>
+      <c r="F97">
+        <v>0.09620418847715466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2062404977186795</v>
+        <v>0.2063812245544402</v>
       </c>
       <c r="C98">
-        <v>0.007091333210864828</v>
+        <v>0.007020650998599793</v>
       </c>
       <c r="D98">
-        <v>0.01037454173894822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0129187272481374</v>
+      </c>
+      <c r="E98">
+        <v>-0.07833342272509301</v>
+      </c>
+      <c r="F98">
+        <v>0.09449296137407784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05416601254728964</v>
+        <v>0.05431697872993939</v>
       </c>
       <c r="C99">
-        <v>0.006409971790287032</v>
+        <v>-0.004745622666321622</v>
       </c>
       <c r="D99">
-        <v>-0.02354295293685675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0402550942621975</v>
+      </c>
+      <c r="E99">
+        <v>0.02250495584577414</v>
+      </c>
+      <c r="F99">
+        <v>-0.00237853351888637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1475362614601689</v>
+        <v>0.1268873197393857</v>
       </c>
       <c r="C100">
-        <v>0.04506350758535587</v>
+        <v>-0.05399231826481128</v>
       </c>
       <c r="D100">
-        <v>-0.4861682597372015</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3458974007183721</v>
+      </c>
+      <c r="E100">
+        <v>-0.8865656701619496</v>
+      </c>
+      <c r="F100">
+        <v>0.156079118987598</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02545058550155631</v>
+        <v>0.02835673806081808</v>
       </c>
       <c r="C101">
-        <v>-0.008352199159645845</v>
+        <v>0.00863415103933908</v>
       </c>
       <c r="D101">
-        <v>-0.01794540474186844</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03052206817828502</v>
+      </c>
+      <c r="E101">
+        <v>0.01308173288586153</v>
+      </c>
+      <c r="F101">
+        <v>0.01439028575342399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
